--- a/carteira_servicos_MBP/n8n/pirituba_fora_do_prazo.xlsx
+++ b/carteira_servicos_MBP/n8n/pirituba_fora_do_prazo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="189">
   <si>
     <t>Número OS</t>
   </si>
@@ -37,70 +37,547 @@
     <t>Prazo</t>
   </si>
   <si>
-    <t xml:space="preserve"> RUA KALORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TRAVESSA ANTONINI FERDINANDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TRAVESSA ARBIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VIELA CINCO DO JD CAROMBE</t>
+    <t xml:space="preserve"> ESTRADA DO CONGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ESTRADA DO PINHEIRINHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA MONTE AZUL PAULISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA GIULIO EREMITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JANAUBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA AMANAYARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA FILOMENA FONGARO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRAVESSA VITORIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA MOISES ALEXANDRINO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA FABIO COLONA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA DA IGUALDADE NOVA UNIAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JULIO MACIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA CAPELA DA LAGOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AVENIDA ELISIO TEIXEIRA LEITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA SANTA CRUZ DO PIAUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ROBERTO DONAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ALTO DO RODRIGUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA MORRO DE SAO SEBASTIAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA AMADEU CAEGO MONTEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA DELSUC ALVES DE MAGALHAES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ESTRADA LAZARO AMANCIO DE BARROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JOAQUIM MATEUS CORREIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA UNIAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRAVESSA GERALDO BENEDITO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA DA MINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA GUIOMAR NOVAES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AVENIDA HUGO ITALO MERIGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JOAQUIM JOSE DE ALMEIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA LARANJEIRAS DO SUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ADOLFO LAZZARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA FELIX BOGADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AVENIDA ATILIO BRUGNOLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA TOMAS MARTINEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ESTRADA JOSE LOPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ARISTEU SILVESTRE DE JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ILHAS MAMORI</t>
   </si>
   <si>
     <t xml:space="preserve"> RUA LEONEL MARTINIANO</t>
   </si>
   <si>
-    <t xml:space="preserve"> AVENIDA MANOEL DOMINGOS PINTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA CARDEAL-DO-ARAGUAIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA EUVALDO AUGUSTO FREIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA MANUEL PINHEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA CARLOTA MOSSETTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA JUVENCIO ARAUJO FIGUEIREDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA ANTONIO DA SILVA LEITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ESTRADA TURISTICA DO JARAGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA CLODOALDO GOYANNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VIELA DA JUVENAL LIRA</t>
+    <t xml:space="preserve"> RUA DAS PEDRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALAMEDA DOS SALGUEIROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JOAO DE BARRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA PARANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JOAO ALMEIDA SAMPAIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA PRESIDENTE FELIX PAIVA VIELA CINCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JOSE DA CUNHA PONTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA RECIFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA CORONEL FABRICIANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA PEDRO DE PASTRANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA SEBASTIAO DE PINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA PRESGRAVE DO AMARAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ESTRADA DAS TAIPAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRAVESSA TABULEIROS DE VALENCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA AMADEU ROLDAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA DONA LAZARA SILVEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA SANTA ALBINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA SAO JUDAS TADEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AVENIDA LEOPOLDO DE PASSOS LIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRAVESSA PERIQUITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA EDUARDO GRUSIUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA PERA D AGUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA PAVAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AVENIDA SAPUCAIA DO SUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA CLARA NUNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JOAO FERNANDES VIEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VIA DE PEDESTRE FRANCISCO SORIANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA PINHEIRO RAPOSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA GONCALO ALDANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ANHANGUERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRAVESSA DAS FLORES NOVA UNIAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ELISA DINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ENGENHEIRO PAULO CARNEIRO DA CUNHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA SAPOPEMBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA AVELINO GINJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA UM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA EDUARDO VIEIRA DE MELO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA PADRE MANUEL CAMPELLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA GALDINO CATUNDA GONDIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ANDORINHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ALFREDO LUCIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA MARIO PALMERIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VIELA TRES DO JD GUARANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ITAMBE DO MATO DENTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ANTONIO DALCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA MONTE DO CARMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA EMILIO CASTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA TOME DE ALMEIDA E OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ANTONIO CARLOS PEREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA OITO JD PAULISTANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA NOVA GUATAPORANGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA BALTASAR ALVARES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA SEVERINO VILAR FILHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VIELA SEIS DO JD CAROMBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALAMEDA ARISTOTELES CLAUDIO SBRIGHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ACARICUARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA PORTUARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA EMILIO COLELLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA BARRA DO GARCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA GREGORIO TAGLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JOAQUIM JOSE DE LIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRAVESSA PASQUAL BINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA DOM PEDRO HENRIQUE DE O E BRAGANCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRAVESSA SAO FRANCISCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA FORTALEZA S 124 Q 2068</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JORGE PILLI NETTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA SANCLERLANDIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA DOS PIONEIROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA DOUTOR AUGUSTO ANDRADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ELVIRA DA ROCHA LIMA TOLEDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA VENANCIO DINIZ JUNQUEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VIELA PINTASSILGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA BENEDITO EGIDIO BARBOSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JOSE CORREIA LIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA OLGA BENARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JOSE AMARO PECANHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VIELA DEZENOVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA IVO CAVALCANTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA FRANCISCO BASILIO DE MELO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA AZIS JORGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AVENIDA FERNANDO MENDES DE ALMEIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ALFREDO RUIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA MANUEL MARQUES DE SOUSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA MAJOR ALFREDO ROMAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JULIO NICOLAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ARROIO DA SECA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA VINTE E SEIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA BRASIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA GAVIAO REAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA DOUTOR ARISTOTELES SOARES ROCHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JULIO VICENTE FERREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA DOMINGOS AREVALO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JOSE DE ANCHIETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA SEM NOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ADALBERTO KURT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRAVESSA JOSE DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ILHA DAS PALMAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA CORONEL LICINIO DE CAMARGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA MANUEL RODRIGUES DA COSTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRAVESSA DAS ROSAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ESTRADA CORONEL JOSE GLADIADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA COSMO DI SANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ANTONIO CANDIDO DE ALVARENGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JACOPO DEBARBARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA NANDIRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JUINAMIRIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VIELA PARTICULAR S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ANTONIO RAIOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA VIARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VIELA SEM NOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VIELA DOIS DO JD CAROMBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA BERNARDO DE VERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ENGENHEIRO MARCILIO CARDOSO</t>
+  </si>
+  <si>
+    <t>REPOR ASFALTO</t>
+  </si>
+  <si>
+    <t>REPOR PASSEIO ADJACENTE ESPECIAL</t>
+  </si>
+  <si>
+    <t>ATERRAR VALA</t>
+  </si>
+  <si>
+    <t>REPOR ASFALTO INV</t>
+  </si>
+  <si>
+    <t>VAZAMENTO DE ÁGUA COM INFILTRAÇÃO</t>
+  </si>
+  <si>
+    <t>TROCAR SOLO</t>
   </si>
   <si>
     <t>VAZAMENTO DE ÁGUA LEITO PAVIMENTADO</t>
   </si>
   <si>
+    <t>CONSERTAR REDE DE ESGOTO</t>
+  </si>
+  <si>
+    <t>TROCAR RAMAL DE ÁGUA - VAZ NÃO VISIVEL</t>
+  </si>
+  <si>
     <t>VAZAMENTO DE ÁGUA NO PASSEIO</t>
   </si>
   <si>
-    <t>VAZAMENTO DE ÁGUA COM INFILTRAÇÃO</t>
-  </si>
-  <si>
-    <t>FALTA DE ÁGUA LOCAL</t>
+    <t>CAVALETE VAZANDO</t>
+  </si>
+  <si>
+    <t>REPOR BLOQUETE</t>
+  </si>
+  <si>
+    <t>VAZAMENTO DE ÁGUA NÃO VISÍVEL REDE</t>
+  </si>
+  <si>
+    <t>TROCAR RAMAL DE ESGOTO</t>
+  </si>
+  <si>
+    <t>REGISTRO DO CAVALETE QUEBRADO</t>
+  </si>
+  <si>
+    <t>REGISTRO DO CAVALETE VAZANDO</t>
+  </si>
+  <si>
+    <t>VAZAMENTO DE ÁGUA LEITO TERRA</t>
+  </si>
+  <si>
+    <t>CONSERTAR RAMAL DE ESGOTO</t>
+  </si>
+  <si>
+    <t>DESOBSTRUIR RETORNO PARA IMOVEL</t>
+  </si>
+  <si>
+    <t>DESOBSTRUIR RAMAL DE ESGOTO</t>
   </si>
   <si>
     <t>Pirituba</t>
   </si>
   <si>
+    <t>CAPA ASF; CAPA ASF ECOL; ASFALTO; ASFALTO ECOL; SINALIZAÇÃO</t>
+  </si>
+  <si>
+    <t>PA ESP; PI ESP</t>
+  </si>
+  <si>
+    <t>ATERROS DE VALA</t>
+  </si>
+  <si>
     <t>VAZAMENTO DE ÁGUA</t>
   </si>
   <si>
+    <t>GUIA; SARJETA; CONCRETO; BLOQUETE; MURO; GRAMA; PARALELO; TROCA DE SOLO</t>
+  </si>
+  <si>
+    <t>CONSERTO DE COLETOR</t>
+  </si>
+  <si>
+    <t>VAZAMENTO NÃO VISÍVEL</t>
+  </si>
+  <si>
     <t>CAVALETE</t>
+  </si>
+  <si>
+    <t>CRE; TRE</t>
+  </si>
+  <si>
+    <t>DESOBSTRUÇÕES</t>
   </si>
   <si>
     <t>Fora do prazo</t>
@@ -461,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,347 +969,3958 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2524478792</v>
+        <v>2526194027</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="E2">
-        <v>137.89</v>
+        <v>192.11</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2561120441</v>
+        <v>2526226874</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="E3">
-        <v>67.34</v>
+        <v>190.49</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2561132723</v>
+        <v>2526228750</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="E4">
-        <v>66.05</v>
+        <v>190.31</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>2524674413</v>
+        <v>2526231192</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="E5">
-        <v>64.67</v>
+        <v>190.06</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>2561159592</v>
+        <v>2526249482</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="E6">
-        <v>63.14</v>
+        <v>188.06</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>2524726093</v>
+        <v>2526177845</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="E7">
-        <v>46.29</v>
+        <v>187.19</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>2524733102</v>
+        <v>2526275267</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="E8">
-        <v>45.64</v>
+        <v>185.41</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>2524775964</v>
+        <v>2526277533</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="E9">
-        <v>41.05</v>
+        <v>185.04</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>2524797593</v>
+        <v>2526279602</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="E10">
-        <v>39.12</v>
+        <v>184.41</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>2561268437</v>
+        <v>2526165100</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="E11">
-        <v>37.9</v>
+        <v>170.94</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>2524807968</v>
+        <v>2526347443</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="E12">
-        <v>37.22</v>
+        <v>167.81</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>2524812480</v>
+        <v>2526091773</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="E13">
-        <v>35.7</v>
+        <v>165.61</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>2524813507</v>
+        <v>2526105143</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="E14">
-        <v>35.27</v>
+        <v>165.19</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>2561287289</v>
+        <v>2526249117</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="E15">
-        <v>34.19</v>
+        <v>165.61</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>2524817562</v>
+        <v>2562120639</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16">
+        <v>164.19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>2526226491</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17">
+        <v>166.03</v>
+      </c>
+      <c r="F17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2526227950</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18">
+        <v>168.11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2526246255</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19">
+        <v>167.94</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>2526251066</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20">
+        <v>168.03</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>2526251560</v>
+      </c>
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>32.39</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21">
+        <v>168.03</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>2526268841</v>
+      </c>
+      <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="G16" t="s">
+      <c r="C22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22">
+        <v>167.94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>2526270241</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23">
+        <v>167.78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>2525941678</v>
+      </c>
+      <c r="B24" t="s">
         <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24">
+        <v>165.44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>2526380753</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25">
+        <v>163.94</v>
+      </c>
+      <c r="F25" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>2525646859</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26">
+        <v>145.11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>2526490293</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27">
+        <v>143.59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>2526506268</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28">
+        <v>142.63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>2526507320</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29">
+        <v>142.56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>2526515943</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30">
+        <v>142.08</v>
+      </c>
+      <c r="F30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>2526519375</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31">
+        <v>141.91</v>
+      </c>
+      <c r="F31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>2526229671</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32">
+        <v>144.03</v>
+      </c>
+      <c r="F32" t="s">
+        <v>182</v>
+      </c>
+      <c r="G32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>2526247686</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33">
+        <v>143.94</v>
+      </c>
+      <c r="F33" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>2526253873</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34">
+        <v>143.94</v>
+      </c>
+      <c r="F34" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>2526350219</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35">
+        <v>144.11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>2526210486</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36">
+        <v>143.03</v>
+      </c>
+      <c r="F36" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>2526551533</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37">
+        <v>139.24</v>
+      </c>
+      <c r="F37" t="s">
+        <v>178</v>
+      </c>
+      <c r="G37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>2526551783</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38">
+        <v>139.21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>178</v>
+      </c>
+      <c r="G38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>2526552062</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39">
+        <v>139.16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>178</v>
+      </c>
+      <c r="G39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>2526552304</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40">
+        <v>139.14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>2526552587</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41">
+        <v>139.11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>178</v>
+      </c>
+      <c r="G41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>2526552734</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42">
+        <v>139.08</v>
+      </c>
+      <c r="F42" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>2526193263</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43">
+        <v>143.94</v>
+      </c>
+      <c r="F43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>2526553686</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44">
+        <v>138.99</v>
+      </c>
+      <c r="F44" t="s">
+        <v>178</v>
+      </c>
+      <c r="G44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>2526206781</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45">
+        <v>141.53</v>
+      </c>
+      <c r="F45" t="s">
+        <v>178</v>
+      </c>
+      <c r="G45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>2525819943</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46">
+        <v>141.53</v>
+      </c>
+      <c r="F46" t="s">
+        <v>178</v>
+      </c>
+      <c r="G46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>2526193306</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47">
+        <v>141.44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>178</v>
+      </c>
+      <c r="G47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>2526242161</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48">
+        <v>143.94</v>
+      </c>
+      <c r="F48" t="s">
+        <v>178</v>
+      </c>
+      <c r="G48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>2526210727</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49">
+        <v>143.94</v>
+      </c>
+      <c r="F49" t="s">
+        <v>178</v>
+      </c>
+      <c r="G49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>2526566916</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50">
+        <v>137.94</v>
+      </c>
+      <c r="F50" t="s">
+        <v>184</v>
+      </c>
+      <c r="G50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>2562463846</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51">
+        <v>122.09</v>
+      </c>
+      <c r="F51" t="s">
+        <v>181</v>
+      </c>
+      <c r="G51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>2526482583</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" t="s">
+        <v>177</v>
+      </c>
+      <c r="E52">
+        <v>122.19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>178</v>
+      </c>
+      <c r="G52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>2526675561</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53">
+        <v>120.59</v>
+      </c>
+      <c r="F53" t="s">
+        <v>181</v>
+      </c>
+      <c r="G53" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>2524951502</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54">
+        <v>120.19</v>
+      </c>
+      <c r="F54" t="s">
+        <v>178</v>
+      </c>
+      <c r="G54" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>2526554355</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55">
+        <v>119.94</v>
+      </c>
+      <c r="F55" t="s">
+        <v>178</v>
+      </c>
+      <c r="G55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>2526685111</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56">
+        <v>120.04</v>
+      </c>
+      <c r="F56" t="s">
+        <v>181</v>
+      </c>
+      <c r="G56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>2526488824</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57">
+        <v>143.68</v>
+      </c>
+      <c r="F57" t="s">
+        <v>181</v>
+      </c>
+      <c r="G57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>2526687054</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" t="s">
+        <v>177</v>
+      </c>
+      <c r="E58">
+        <v>119.99</v>
+      </c>
+      <c r="F58" t="s">
+        <v>181</v>
+      </c>
+      <c r="G58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>2526346234</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59">
+        <v>119.23</v>
+      </c>
+      <c r="F59" t="s">
+        <v>178</v>
+      </c>
+      <c r="G59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>2526334171</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60">
+        <v>119.19</v>
+      </c>
+      <c r="F60" t="s">
+        <v>178</v>
+      </c>
+      <c r="G60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>2562475914</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61">
+        <v>119.91</v>
+      </c>
+      <c r="F61" t="s">
+        <v>181</v>
+      </c>
+      <c r="G61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>2526695337</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62">
+        <v>119.69</v>
+      </c>
+      <c r="F62" t="s">
+        <v>180</v>
+      </c>
+      <c r="G62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>2526705034</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63">
+        <v>119.36</v>
+      </c>
+      <c r="F63" t="s">
+        <v>181</v>
+      </c>
+      <c r="G63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>2526045232</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64">
+        <v>116.23</v>
+      </c>
+      <c r="F64" t="s">
+        <v>178</v>
+      </c>
+      <c r="G64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>2526279650</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65">
+        <v>116.23</v>
+      </c>
+      <c r="F65" t="s">
+        <v>178</v>
+      </c>
+      <c r="G65" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>2562212668</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66">
+        <v>116.23</v>
+      </c>
+      <c r="F66" t="s">
+        <v>178</v>
+      </c>
+      <c r="G66" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>2526468642</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67">
+        <v>115.19</v>
+      </c>
+      <c r="F67" t="s">
+        <v>178</v>
+      </c>
+      <c r="G67" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>2526247931</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68">
+        <v>115.19</v>
+      </c>
+      <c r="F68" t="s">
+        <v>178</v>
+      </c>
+      <c r="G68" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>2526501540</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69">
+        <v>118.94</v>
+      </c>
+      <c r="F69" t="s">
+        <v>178</v>
+      </c>
+      <c r="G69" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>2526342960</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" t="s">
+        <v>177</v>
+      </c>
+      <c r="E70">
+        <v>118.11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>178</v>
+      </c>
+      <c r="G70" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>2526369186</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71">
+        <v>118.94</v>
+      </c>
+      <c r="F71" t="s">
+        <v>178</v>
+      </c>
+      <c r="G71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>2526397198</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72">
+        <v>118.03</v>
+      </c>
+      <c r="F72" t="s">
+        <v>178</v>
+      </c>
+      <c r="G72" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>2526724345</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73">
+        <v>118.79</v>
+      </c>
+      <c r="F73" t="s">
+        <v>180</v>
+      </c>
+      <c r="G73" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>2526728808</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" t="s">
+        <v>177</v>
+      </c>
+      <c r="E74">
+        <v>118.64</v>
+      </c>
+      <c r="F74" t="s">
+        <v>181</v>
+      </c>
+      <c r="G74" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>2526734236</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75">
+        <v>118.46</v>
+      </c>
+      <c r="F75" t="s">
+        <v>185</v>
+      </c>
+      <c r="G75" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>2562370483</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" t="s">
+        <v>177</v>
+      </c>
+      <c r="E76">
+        <v>99.19</v>
+      </c>
+      <c r="F76" t="s">
+        <v>178</v>
+      </c>
+      <c r="G76" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>2526243351</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" t="s">
+        <v>177</v>
+      </c>
+      <c r="E77">
+        <v>97.03</v>
+      </c>
+      <c r="F77" t="s">
+        <v>178</v>
+      </c>
+      <c r="G77" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>2526243836</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78">
+        <v>97.03</v>
+      </c>
+      <c r="F78" t="s">
+        <v>178</v>
+      </c>
+      <c r="G78" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>2526819310</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" t="s">
+        <v>177</v>
+      </c>
+      <c r="E79">
+        <v>115.88</v>
+      </c>
+      <c r="F79" t="s">
+        <v>181</v>
+      </c>
+      <c r="G79" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>2562231219</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" t="s">
+        <v>177</v>
+      </c>
+      <c r="E80">
+        <v>95.19</v>
+      </c>
+      <c r="F80" t="s">
+        <v>178</v>
+      </c>
+      <c r="G80" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>2526389242</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" t="s">
+        <v>177</v>
+      </c>
+      <c r="E81">
+        <v>95.23</v>
+      </c>
+      <c r="F81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>2526499756</v>
+      </c>
+      <c r="B82" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82">
+        <v>95.23</v>
+      </c>
+      <c r="F82" t="s">
+        <v>178</v>
+      </c>
+      <c r="G82" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>2526271097</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>157</v>
+      </c>
+      <c r="D83" t="s">
+        <v>177</v>
+      </c>
+      <c r="E83">
+        <v>94.09</v>
+      </c>
+      <c r="F83" t="s">
+        <v>178</v>
+      </c>
+      <c r="G83" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>2526194685</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>157</v>
+      </c>
+      <c r="D84" t="s">
+        <v>177</v>
+      </c>
+      <c r="E84">
+        <v>93.23</v>
+      </c>
+      <c r="F84" t="s">
+        <v>178</v>
+      </c>
+      <c r="G84" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>2526271476</v>
+      </c>
+      <c r="B85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85" t="s">
+        <v>177</v>
+      </c>
+      <c r="E85">
+        <v>94.03</v>
+      </c>
+      <c r="F85" t="s">
+        <v>178</v>
+      </c>
+      <c r="G85" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>2526688866</v>
+      </c>
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" t="s">
+        <v>177</v>
+      </c>
+      <c r="E86">
+        <v>93.53</v>
+      </c>
+      <c r="F86" t="s">
+        <v>178</v>
+      </c>
+      <c r="G86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>2526837586</v>
+      </c>
+      <c r="B87" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87" t="s">
+        <v>177</v>
+      </c>
+      <c r="E87">
+        <v>92.14</v>
+      </c>
+      <c r="F87" t="s">
+        <v>178</v>
+      </c>
+      <c r="G87" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>2526358412</v>
+      </c>
+      <c r="B88" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D88" t="s">
+        <v>177</v>
+      </c>
+      <c r="E88">
+        <v>92.23</v>
+      </c>
+      <c r="F88" t="s">
+        <v>178</v>
+      </c>
+      <c r="G88" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>2526359364</v>
+      </c>
+      <c r="B89" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" t="s">
+        <v>177</v>
+      </c>
+      <c r="E89">
+        <v>91.39</v>
+      </c>
+      <c r="F89" t="s">
+        <v>178</v>
+      </c>
+      <c r="G89" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>2526508597</v>
+      </c>
+      <c r="B90" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" t="s">
+        <v>168</v>
+      </c>
+      <c r="D90" t="s">
+        <v>177</v>
+      </c>
+      <c r="E90">
+        <v>92.53</v>
+      </c>
+      <c r="F90" t="s">
+        <v>182</v>
+      </c>
+      <c r="G90" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>2526877747</v>
+      </c>
+      <c r="B91" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" t="s">
+        <v>167</v>
+      </c>
+      <c r="D91" t="s">
+        <v>177</v>
+      </c>
+      <c r="E91">
+        <v>108.46</v>
+      </c>
+      <c r="F91" t="s">
+        <v>185</v>
+      </c>
+      <c r="G91" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>2526883806</v>
+      </c>
+      <c r="B92" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92" t="s">
+        <v>177</v>
+      </c>
+      <c r="E92">
+        <v>98.70999999999999</v>
+      </c>
+      <c r="F92" t="s">
+        <v>184</v>
+      </c>
+      <c r="G92" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>2526885454</v>
+      </c>
+      <c r="B93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" t="s">
+        <v>163</v>
+      </c>
+      <c r="D93" t="s">
+        <v>177</v>
+      </c>
+      <c r="E93">
+        <v>98.03</v>
+      </c>
+      <c r="F93" t="s">
+        <v>181</v>
+      </c>
+      <c r="G93" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>2562552493</v>
+      </c>
+      <c r="B94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" t="s">
+        <v>177</v>
+      </c>
+      <c r="E94">
+        <v>96.33</v>
+      </c>
+      <c r="F94" t="s">
+        <v>181</v>
+      </c>
+      <c r="G94" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>2526903480</v>
+      </c>
+      <c r="B95" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" t="s">
+        <v>161</v>
+      </c>
+      <c r="D95" t="s">
+        <v>177</v>
+      </c>
+      <c r="E95">
+        <v>96.13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>181</v>
+      </c>
+      <c r="G95" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>2526905050</v>
+      </c>
+      <c r="B96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D96" t="s">
+        <v>177</v>
+      </c>
+      <c r="E96">
+        <v>95.95999999999999</v>
+      </c>
+      <c r="F96" t="s">
+        <v>181</v>
+      </c>
+      <c r="G96" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>2526905169</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" t="s">
+        <v>177</v>
+      </c>
+      <c r="E97">
+        <v>95.94</v>
+      </c>
+      <c r="F97" t="s">
+        <v>185</v>
+      </c>
+      <c r="G97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>2562563081</v>
+      </c>
+      <c r="B98" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" t="s">
+        <v>163</v>
+      </c>
+      <c r="D98" t="s">
+        <v>177</v>
+      </c>
+      <c r="E98">
+        <v>94.81</v>
+      </c>
+      <c r="F98" t="s">
+        <v>181</v>
+      </c>
+      <c r="G98" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>2526918535</v>
+      </c>
+      <c r="B99" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99" t="s">
+        <v>163</v>
+      </c>
+      <c r="D99" t="s">
+        <v>177</v>
+      </c>
+      <c r="E99">
+        <v>94.79000000000001</v>
+      </c>
+      <c r="F99" t="s">
+        <v>181</v>
+      </c>
+      <c r="G99" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>2526918732</v>
+      </c>
+      <c r="B100" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" t="s">
+        <v>163</v>
+      </c>
+      <c r="D100" t="s">
+        <v>177</v>
+      </c>
+      <c r="E100">
+        <v>94.78</v>
+      </c>
+      <c r="F100" t="s">
+        <v>181</v>
+      </c>
+      <c r="G100" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>2526918128</v>
+      </c>
+      <c r="B101" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" t="s">
+        <v>159</v>
+      </c>
+      <c r="D101" t="s">
+        <v>177</v>
+      </c>
+      <c r="E101">
+        <v>94.84</v>
+      </c>
+      <c r="F101" t="s">
+        <v>180</v>
+      </c>
+      <c r="G101" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>2526926062</v>
+      </c>
+      <c r="B102" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" t="s">
+        <v>167</v>
+      </c>
+      <c r="D102" t="s">
+        <v>177</v>
+      </c>
+      <c r="E102">
+        <v>93.81</v>
+      </c>
+      <c r="F102" t="s">
+        <v>185</v>
+      </c>
+      <c r="G102" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>2526930250</v>
+      </c>
+      <c r="B103" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" t="s">
+        <v>167</v>
+      </c>
+      <c r="D103" t="s">
+        <v>177</v>
+      </c>
+      <c r="E103">
+        <v>93.13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>185</v>
+      </c>
+      <c r="G103" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>2562574959</v>
+      </c>
+      <c r="B104" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104" t="s">
+        <v>167</v>
+      </c>
+      <c r="D104" t="s">
+        <v>177</v>
+      </c>
+      <c r="E104">
+        <v>92.98</v>
+      </c>
+      <c r="F104" t="s">
+        <v>185</v>
+      </c>
+      <c r="G104" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>2526927190</v>
+      </c>
+      <c r="B105" t="s">
+        <v>98</v>
+      </c>
+      <c r="C105" t="s">
+        <v>161</v>
+      </c>
+      <c r="D105" t="s">
+        <v>177</v>
+      </c>
+      <c r="E105">
+        <v>93.64</v>
+      </c>
+      <c r="F105" t="s">
+        <v>181</v>
+      </c>
+      <c r="G105" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>2526940809</v>
+      </c>
+      <c r="B106" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" t="s">
+        <v>177</v>
+      </c>
+      <c r="E106">
+        <v>92.53</v>
+      </c>
+      <c r="F106" t="s">
+        <v>185</v>
+      </c>
+      <c r="G106" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>2526941856</v>
+      </c>
+      <c r="B107" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" t="s">
+        <v>167</v>
+      </c>
+      <c r="D107" t="s">
+        <v>177</v>
+      </c>
+      <c r="E107">
+        <v>92.48</v>
+      </c>
+      <c r="F107" t="s">
+        <v>185</v>
+      </c>
+      <c r="G107" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>2526945384</v>
+      </c>
+      <c r="B108" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" t="s">
+        <v>170</v>
+      </c>
+      <c r="D108" t="s">
+        <v>177</v>
+      </c>
+      <c r="E108">
+        <v>92.26000000000001</v>
+      </c>
+      <c r="F108" t="s">
+        <v>186</v>
+      </c>
+      <c r="G108" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>2562583598</v>
+      </c>
+      <c r="B109" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" t="s">
+        <v>166</v>
+      </c>
+      <c r="D109" t="s">
+        <v>177</v>
+      </c>
+      <c r="E109">
+        <v>91.48999999999999</v>
+      </c>
+      <c r="F109" t="s">
+        <v>181</v>
+      </c>
+      <c r="G109" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>2562585604</v>
+      </c>
+      <c r="B110" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" t="s">
+        <v>163</v>
+      </c>
+      <c r="D110" t="s">
+        <v>177</v>
+      </c>
+      <c r="E110">
+        <v>91.13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>181</v>
+      </c>
+      <c r="G110" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>2526957227</v>
+      </c>
+      <c r="B111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C111" t="s">
+        <v>171</v>
+      </c>
+      <c r="D111" t="s">
+        <v>177</v>
+      </c>
+      <c r="E111">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="F111" t="s">
+        <v>185</v>
+      </c>
+      <c r="G111" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>2526960461</v>
+      </c>
+      <c r="B112" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" t="s">
+        <v>172</v>
+      </c>
+      <c r="D112" t="s">
+        <v>177</v>
+      </c>
+      <c r="E112">
+        <v>90.48999999999999</v>
+      </c>
+      <c r="F112" t="s">
+        <v>185</v>
+      </c>
+      <c r="G112" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>2526963119</v>
+      </c>
+      <c r="B113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" t="s">
+        <v>163</v>
+      </c>
+      <c r="D113" t="s">
+        <v>177</v>
+      </c>
+      <c r="E113">
+        <v>90.09</v>
+      </c>
+      <c r="F113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G113" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>2526963485</v>
+      </c>
+      <c r="B114" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" t="s">
+        <v>163</v>
+      </c>
+      <c r="D114" t="s">
+        <v>177</v>
+      </c>
+      <c r="E114">
+        <v>90.06</v>
+      </c>
+      <c r="F114" t="s">
+        <v>181</v>
+      </c>
+      <c r="G114" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>2526963654</v>
+      </c>
+      <c r="B115" t="s">
+        <v>105</v>
+      </c>
+      <c r="C115" t="s">
+        <v>163</v>
+      </c>
+      <c r="D115" t="s">
+        <v>177</v>
+      </c>
+      <c r="E115">
+        <v>90.03</v>
+      </c>
+      <c r="F115" t="s">
+        <v>181</v>
+      </c>
+      <c r="G115" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>2562592090</v>
+      </c>
+      <c r="B116" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116" t="s">
+        <v>166</v>
+      </c>
+      <c r="D116" t="s">
+        <v>177</v>
+      </c>
+      <c r="E116">
+        <v>89.88</v>
+      </c>
+      <c r="F116" t="s">
+        <v>181</v>
+      </c>
+      <c r="G116" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>2526964572</v>
+      </c>
+      <c r="B117" t="s">
+        <v>59</v>
+      </c>
+      <c r="C117" t="s">
+        <v>163</v>
+      </c>
+      <c r="D117" t="s">
+        <v>177</v>
+      </c>
+      <c r="E117">
+        <v>89.86</v>
+      </c>
+      <c r="F117" t="s">
+        <v>181</v>
+      </c>
+      <c r="G117" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>2526964998</v>
+      </c>
+      <c r="B118" t="s">
+        <v>107</v>
+      </c>
+      <c r="C118" t="s">
+        <v>167</v>
+      </c>
+      <c r="D118" t="s">
+        <v>177</v>
+      </c>
+      <c r="E118">
+        <v>89.78</v>
+      </c>
+      <c r="F118" t="s">
+        <v>185</v>
+      </c>
+      <c r="G118" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>2527041009</v>
+      </c>
+      <c r="B119" t="s">
+        <v>108</v>
+      </c>
+      <c r="C119" t="s">
+        <v>163</v>
+      </c>
+      <c r="D119" t="s">
+        <v>177</v>
+      </c>
+      <c r="E119">
+        <v>74.38</v>
+      </c>
+      <c r="F119" t="s">
+        <v>181</v>
+      </c>
+      <c r="G119" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>2527042435</v>
+      </c>
+      <c r="B120" t="s">
+        <v>109</v>
+      </c>
+      <c r="C120" t="s">
+        <v>163</v>
+      </c>
+      <c r="D120" t="s">
+        <v>177</v>
+      </c>
+      <c r="E120">
+        <v>73.29000000000001</v>
+      </c>
+      <c r="F120" t="s">
+        <v>181</v>
+      </c>
+      <c r="G120" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>2562621154</v>
+      </c>
+      <c r="B121" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" t="s">
+        <v>163</v>
+      </c>
+      <c r="D121" t="s">
+        <v>177</v>
+      </c>
+      <c r="E121">
+        <v>73.04000000000001</v>
+      </c>
+      <c r="F121" t="s">
+        <v>181</v>
+      </c>
+      <c r="G121" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>2526228689</v>
+      </c>
+      <c r="B122" t="s">
+        <v>110</v>
+      </c>
+      <c r="C122" t="s">
+        <v>160</v>
+      </c>
+      <c r="D122" t="s">
+        <v>177</v>
+      </c>
+      <c r="E122">
+        <v>75.23</v>
+      </c>
+      <c r="F122" t="s">
+        <v>178</v>
+      </c>
+      <c r="G122" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>2527044571</v>
+      </c>
+      <c r="B123" t="s">
+        <v>111</v>
+      </c>
+      <c r="C123" t="s">
+        <v>167</v>
+      </c>
+      <c r="D123" t="s">
+        <v>177</v>
+      </c>
+      <c r="E123">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="F123" t="s">
+        <v>185</v>
+      </c>
+      <c r="G123" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>2527045362</v>
+      </c>
+      <c r="B124" t="s">
+        <v>112</v>
+      </c>
+      <c r="C124" t="s">
+        <v>167</v>
+      </c>
+      <c r="D124" t="s">
+        <v>177</v>
+      </c>
+      <c r="E124">
+        <v>72.28</v>
+      </c>
+      <c r="F124" t="s">
+        <v>185</v>
+      </c>
+      <c r="G124" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>2527047159</v>
+      </c>
+      <c r="B125" t="s">
+        <v>113</v>
+      </c>
+      <c r="C125" t="s">
+        <v>166</v>
+      </c>
+      <c r="D125" t="s">
+        <v>177</v>
+      </c>
+      <c r="E125">
+        <v>71.68000000000001</v>
+      </c>
+      <c r="F125" t="s">
+        <v>181</v>
+      </c>
+      <c r="G125" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>2527047525</v>
+      </c>
+      <c r="B126" t="s">
+        <v>114</v>
+      </c>
+      <c r="C126" t="s">
+        <v>163</v>
+      </c>
+      <c r="D126" t="s">
+        <v>177</v>
+      </c>
+      <c r="E126">
+        <v>71.58</v>
+      </c>
+      <c r="F126" t="s">
+        <v>181</v>
+      </c>
+      <c r="G126" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>2527049023</v>
+      </c>
+      <c r="B127" t="s">
+        <v>115</v>
+      </c>
+      <c r="C127" t="s">
+        <v>173</v>
+      </c>
+      <c r="D127" t="s">
+        <v>177</v>
+      </c>
+      <c r="E127">
+        <v>71.08</v>
+      </c>
+      <c r="F127" t="s">
+        <v>181</v>
+      </c>
+      <c r="G127" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>2562628127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>116</v>
+      </c>
+      <c r="C128" t="s">
+        <v>171</v>
+      </c>
+      <c r="D128" t="s">
+        <v>177</v>
+      </c>
+      <c r="E128">
+        <v>71.01000000000001</v>
+      </c>
+      <c r="F128" t="s">
+        <v>185</v>
+      </c>
+      <c r="G128" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>2562628348</v>
+      </c>
+      <c r="B129" t="s">
+        <v>117</v>
+      </c>
+      <c r="C129" t="s">
+        <v>163</v>
+      </c>
+      <c r="D129" t="s">
+        <v>177</v>
+      </c>
+      <c r="E129">
+        <v>70.94</v>
+      </c>
+      <c r="F129" t="s">
+        <v>181</v>
+      </c>
+      <c r="G129" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>2527053360</v>
+      </c>
+      <c r="B130" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" t="s">
+        <v>167</v>
+      </c>
+      <c r="D130" t="s">
+        <v>177</v>
+      </c>
+      <c r="E130">
+        <v>69.18000000000001</v>
+      </c>
+      <c r="F130" t="s">
+        <v>185</v>
+      </c>
+      <c r="G130" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>2527053622</v>
+      </c>
+      <c r="B131" t="s">
+        <v>119</v>
+      </c>
+      <c r="C131" t="s">
+        <v>167</v>
+      </c>
+      <c r="D131" t="s">
+        <v>177</v>
+      </c>
+      <c r="E131">
+        <v>69.03</v>
+      </c>
+      <c r="F131" t="s">
+        <v>185</v>
+      </c>
+      <c r="G131" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>2527053800</v>
+      </c>
+      <c r="B132" t="s">
+        <v>120</v>
+      </c>
+      <c r="C132" t="s">
+        <v>163</v>
+      </c>
+      <c r="D132" t="s">
+        <v>177</v>
+      </c>
+      <c r="E132">
+        <v>68.93000000000001</v>
+      </c>
+      <c r="F132" t="s">
+        <v>181</v>
+      </c>
+      <c r="G132" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>2527057054</v>
+      </c>
+      <c r="B133" t="s">
+        <v>121</v>
+      </c>
+      <c r="C133" t="s">
+        <v>161</v>
+      </c>
+      <c r="D133" t="s">
+        <v>177</v>
+      </c>
+      <c r="E133">
+        <v>66.45999999999999</v>
+      </c>
+      <c r="F133" t="s">
+        <v>181</v>
+      </c>
+      <c r="G133" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>2562641727</v>
+      </c>
+      <c r="B134" t="s">
+        <v>122</v>
+      </c>
+      <c r="C134" t="s">
+        <v>167</v>
+      </c>
+      <c r="D134" t="s">
+        <v>177</v>
+      </c>
+      <c r="E134">
+        <v>65.81</v>
+      </c>
+      <c r="F134" t="s">
+        <v>185</v>
+      </c>
+      <c r="G134" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>2526867049</v>
+      </c>
+      <c r="B135" t="s">
+        <v>123</v>
+      </c>
+      <c r="C135" t="s">
+        <v>166</v>
+      </c>
+      <c r="D135" t="s">
+        <v>177</v>
+      </c>
+      <c r="E135">
+        <v>113.78</v>
+      </c>
+      <c r="F135" t="s">
+        <v>181</v>
+      </c>
+      <c r="G135" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>2527060184</v>
+      </c>
+      <c r="B136" t="s">
+        <v>124</v>
+      </c>
+      <c r="C136" t="s">
+        <v>163</v>
+      </c>
+      <c r="D136" t="s">
+        <v>177</v>
+      </c>
+      <c r="E136">
+        <v>63.53</v>
+      </c>
+      <c r="F136" t="s">
+        <v>181</v>
+      </c>
+      <c r="G136" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>2526816235</v>
+      </c>
+      <c r="B137" t="s">
+        <v>125</v>
+      </c>
+      <c r="C137" t="s">
+        <v>170</v>
+      </c>
+      <c r="D137" t="s">
+        <v>177</v>
+      </c>
+      <c r="E137">
+        <v>115.99</v>
+      </c>
+      <c r="F137" t="s">
+        <v>186</v>
+      </c>
+      <c r="G137" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>2526770560</v>
+      </c>
+      <c r="B138" t="s">
+        <v>126</v>
+      </c>
+      <c r="C138" t="s">
+        <v>172</v>
+      </c>
+      <c r="D138" t="s">
+        <v>177</v>
+      </c>
+      <c r="E138">
+        <v>117.34</v>
+      </c>
+      <c r="F138" t="s">
+        <v>185</v>
+      </c>
+      <c r="G138" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>2526866238</v>
+      </c>
+      <c r="B139" t="s">
+        <v>127</v>
+      </c>
+      <c r="C139" t="s">
+        <v>170</v>
+      </c>
+      <c r="D139" t="s">
+        <v>177</v>
+      </c>
+      <c r="E139">
+        <v>113.91</v>
+      </c>
+      <c r="F139" t="s">
+        <v>186</v>
+      </c>
+      <c r="G139" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>2526821034</v>
+      </c>
+      <c r="B140" t="s">
+        <v>128</v>
+      </c>
+      <c r="C140" t="s">
+        <v>174</v>
+      </c>
+      <c r="D140" t="s">
+        <v>177</v>
+      </c>
+      <c r="E140">
+        <v>115.81</v>
+      </c>
+      <c r="F140" t="s">
+        <v>186</v>
+      </c>
+      <c r="G140" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>2527060476</v>
+      </c>
+      <c r="B141" t="s">
+        <v>129</v>
+      </c>
+      <c r="C141" t="s">
+        <v>163</v>
+      </c>
+      <c r="D141" t="s">
+        <v>177</v>
+      </c>
+      <c r="E141">
+        <v>62.99</v>
+      </c>
+      <c r="F141" t="s">
+        <v>181</v>
+      </c>
+      <c r="G141" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>2526970822</v>
+      </c>
+      <c r="B142" t="s">
+        <v>130</v>
+      </c>
+      <c r="C142" t="s">
+        <v>167</v>
+      </c>
+      <c r="D142" t="s">
+        <v>177</v>
+      </c>
+      <c r="E142">
+        <v>87.88</v>
+      </c>
+      <c r="F142" t="s">
+        <v>185</v>
+      </c>
+      <c r="G142" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>2562609316</v>
+      </c>
+      <c r="B143" t="s">
+        <v>131</v>
+      </c>
+      <c r="C143" t="s">
+        <v>163</v>
+      </c>
+      <c r="D143" t="s">
+        <v>177</v>
+      </c>
+      <c r="E143">
+        <v>85.63</v>
+      </c>
+      <c r="F143" t="s">
+        <v>181</v>
+      </c>
+      <c r="G143" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>2526577498</v>
+      </c>
+      <c r="B144" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" t="s">
+        <v>160</v>
+      </c>
+      <c r="D144" t="s">
+        <v>177</v>
+      </c>
+      <c r="E144">
+        <v>72.19</v>
+      </c>
+      <c r="F144" t="s">
+        <v>178</v>
+      </c>
+      <c r="G144" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>2527112988</v>
+      </c>
+      <c r="B145" t="s">
+        <v>132</v>
+      </c>
+      <c r="C145" t="s">
+        <v>163</v>
+      </c>
+      <c r="D145" t="s">
+        <v>177</v>
+      </c>
+      <c r="E145">
+        <v>48.49</v>
+      </c>
+      <c r="F145" t="s">
+        <v>181</v>
+      </c>
+      <c r="G145" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>2562657226</v>
+      </c>
+      <c r="B146" t="s">
+        <v>133</v>
+      </c>
+      <c r="C146" t="s">
+        <v>166</v>
+      </c>
+      <c r="D146" t="s">
+        <v>177</v>
+      </c>
+      <c r="E146">
+        <v>48.36</v>
+      </c>
+      <c r="F146" t="s">
+        <v>181</v>
+      </c>
+      <c r="G146" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>2527114795</v>
+      </c>
+      <c r="B147" t="s">
+        <v>134</v>
+      </c>
+      <c r="C147" t="s">
+        <v>163</v>
+      </c>
+      <c r="D147" t="s">
+        <v>177</v>
+      </c>
+      <c r="E147">
+        <v>47.54</v>
+      </c>
+      <c r="F147" t="s">
+        <v>181</v>
+      </c>
+      <c r="G147" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>2527115259</v>
+      </c>
+      <c r="B148" t="s">
+        <v>135</v>
+      </c>
+      <c r="C148" t="s">
+        <v>166</v>
+      </c>
+      <c r="D148" t="s">
+        <v>177</v>
+      </c>
+      <c r="E148">
+        <v>46.89</v>
+      </c>
+      <c r="F148" t="s">
+        <v>181</v>
+      </c>
+      <c r="G148" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>2562663301</v>
+      </c>
+      <c r="B149" t="s">
+        <v>136</v>
+      </c>
+      <c r="C149" t="s">
+        <v>163</v>
+      </c>
+      <c r="D149" t="s">
+        <v>177</v>
+      </c>
+      <c r="E149">
+        <v>45.78</v>
+      </c>
+      <c r="F149" t="s">
+        <v>181</v>
+      </c>
+      <c r="G149" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>2527116126</v>
+      </c>
+      <c r="B150" t="s">
+        <v>137</v>
+      </c>
+      <c r="C150" t="s">
+        <v>163</v>
+      </c>
+      <c r="D150" t="s">
+        <v>177</v>
+      </c>
+      <c r="E150">
+        <v>45.78</v>
+      </c>
+      <c r="F150" t="s">
+        <v>181</v>
+      </c>
+      <c r="G150" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>2562673066</v>
+      </c>
+      <c r="B151" t="s">
+        <v>138</v>
+      </c>
+      <c r="C151" t="s">
+        <v>172</v>
+      </c>
+      <c r="D151" t="s">
+        <v>177</v>
+      </c>
+      <c r="E151">
+        <v>40.71</v>
+      </c>
+      <c r="F151" t="s">
+        <v>185</v>
+      </c>
+      <c r="G151" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>2527119004</v>
+      </c>
+      <c r="B152" t="s">
+        <v>139</v>
+      </c>
+      <c r="C152" t="s">
+        <v>171</v>
+      </c>
+      <c r="D152" t="s">
+        <v>177</v>
+      </c>
+      <c r="E152">
+        <v>40.71</v>
+      </c>
+      <c r="F152" t="s">
+        <v>185</v>
+      </c>
+      <c r="G152" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>2527119211</v>
+      </c>
+      <c r="B153" t="s">
+        <v>65</v>
+      </c>
+      <c r="C153" t="s">
+        <v>167</v>
+      </c>
+      <c r="D153" t="s">
+        <v>177</v>
+      </c>
+      <c r="E153">
+        <v>40.23</v>
+      </c>
+      <c r="F153" t="s">
+        <v>185</v>
+      </c>
+      <c r="G153" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>2527119655</v>
+      </c>
+      <c r="B154" t="s">
+        <v>140</v>
+      </c>
+      <c r="C154" t="s">
+        <v>172</v>
+      </c>
+      <c r="D154" t="s">
+        <v>177</v>
+      </c>
+      <c r="E154">
+        <v>38.79</v>
+      </c>
+      <c r="F154" t="s">
+        <v>185</v>
+      </c>
+      <c r="G154" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>2562677509</v>
+      </c>
+      <c r="B155" t="s">
+        <v>141</v>
+      </c>
+      <c r="C155" t="s">
+        <v>167</v>
+      </c>
+      <c r="D155" t="s">
+        <v>177</v>
+      </c>
+      <c r="E155">
+        <v>38.51</v>
+      </c>
+      <c r="F155" t="s">
+        <v>185</v>
+      </c>
+      <c r="G155" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>2527119931</v>
+      </c>
+      <c r="B156" t="s">
+        <v>127</v>
+      </c>
+      <c r="C156" t="s">
+        <v>166</v>
+      </c>
+      <c r="D156" t="s">
+        <v>177</v>
+      </c>
+      <c r="E156">
+        <v>37.94</v>
+      </c>
+      <c r="F156" t="s">
+        <v>181</v>
+      </c>
+      <c r="G156" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>2562682813</v>
+      </c>
+      <c r="B157" t="s">
+        <v>142</v>
+      </c>
+      <c r="C157" t="s">
+        <v>163</v>
+      </c>
+      <c r="D157" t="s">
+        <v>177</v>
+      </c>
+      <c r="E157">
+        <v>35.66</v>
+      </c>
+      <c r="F157" t="s">
+        <v>181</v>
+      </c>
+      <c r="G157" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>2562687610</v>
+      </c>
+      <c r="B158" t="s">
+        <v>143</v>
+      </c>
+      <c r="C158" t="s">
+        <v>167</v>
+      </c>
+      <c r="D158" t="s">
+        <v>177</v>
+      </c>
+      <c r="E158">
+        <v>26.98</v>
+      </c>
+      <c r="F158" t="s">
+        <v>185</v>
+      </c>
+      <c r="G158" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>2527127478</v>
+      </c>
+      <c r="B159" t="s">
+        <v>87</v>
+      </c>
+      <c r="C159" t="s">
+        <v>163</v>
+      </c>
+      <c r="D159" t="s">
+        <v>177</v>
+      </c>
+      <c r="E159">
+        <v>26.81</v>
+      </c>
+      <c r="F159" t="s">
+        <v>181</v>
+      </c>
+      <c r="G159" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>2527129204</v>
+      </c>
+      <c r="B160" t="s">
+        <v>144</v>
+      </c>
+      <c r="C160" t="s">
+        <v>163</v>
+      </c>
+      <c r="D160" t="s">
+        <v>177</v>
+      </c>
+      <c r="E160">
+        <v>26.11</v>
+      </c>
+      <c r="F160" t="s">
+        <v>181</v>
+      </c>
+      <c r="G160" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>2527131049</v>
+      </c>
+      <c r="B161" t="s">
+        <v>145</v>
+      </c>
+      <c r="C161" t="s">
+        <v>167</v>
+      </c>
+      <c r="D161" t="s">
+        <v>177</v>
+      </c>
+      <c r="E161">
+        <v>25.74</v>
+      </c>
+      <c r="F161" t="s">
+        <v>185</v>
+      </c>
+      <c r="G161" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>2562694479</v>
+      </c>
+      <c r="B162" t="s">
+        <v>146</v>
+      </c>
+      <c r="C162" t="s">
+        <v>167</v>
+      </c>
+      <c r="D162" t="s">
+        <v>177</v>
+      </c>
+      <c r="E162">
+        <v>25.39</v>
+      </c>
+      <c r="F162" t="s">
+        <v>185</v>
+      </c>
+      <c r="G162" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>2527133877</v>
+      </c>
+      <c r="B163" t="s">
+        <v>147</v>
+      </c>
+      <c r="C163" t="s">
+        <v>175</v>
+      </c>
+      <c r="D163" t="s">
+        <v>177</v>
+      </c>
+      <c r="E163">
+        <v>25.28</v>
+      </c>
+      <c r="F163" t="s">
+        <v>187</v>
+      </c>
+      <c r="G163" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>2527135352</v>
+      </c>
+      <c r="B164" t="s">
+        <v>148</v>
+      </c>
+      <c r="C164" t="s">
+        <v>176</v>
+      </c>
+      <c r="D164" t="s">
+        <v>177</v>
+      </c>
+      <c r="E164">
+        <v>25.04</v>
+      </c>
+      <c r="F164" t="s">
+        <v>187</v>
+      </c>
+      <c r="G164" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>2527135921</v>
+      </c>
+      <c r="B165" t="s">
+        <v>56</v>
+      </c>
+      <c r="C165" t="s">
+        <v>167</v>
+      </c>
+      <c r="D165" t="s">
+        <v>177</v>
+      </c>
+      <c r="E165">
+        <v>24.98</v>
+      </c>
+      <c r="F165" t="s">
+        <v>185</v>
+      </c>
+      <c r="G165" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>2562698879</v>
+      </c>
+      <c r="B166" t="s">
+        <v>149</v>
+      </c>
+      <c r="C166" t="s">
+        <v>171</v>
+      </c>
+      <c r="D166" t="s">
+        <v>177</v>
+      </c>
+      <c r="E166">
+        <v>24.76</v>
+      </c>
+      <c r="F166" t="s">
+        <v>185</v>
+      </c>
+      <c r="G166" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>2527137966</v>
+      </c>
+      <c r="B167" t="s">
+        <v>150</v>
+      </c>
+      <c r="C167" t="s">
+        <v>167</v>
+      </c>
+      <c r="D167" t="s">
+        <v>177</v>
+      </c>
+      <c r="E167">
+        <v>24.74</v>
+      </c>
+      <c r="F167" t="s">
+        <v>185</v>
+      </c>
+      <c r="G167" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>2562699618</v>
+      </c>
+      <c r="B168" t="s">
+        <v>151</v>
+      </c>
+      <c r="C168" t="s">
+        <v>163</v>
+      </c>
+      <c r="D168" t="s">
+        <v>177</v>
+      </c>
+      <c r="E168">
+        <v>24.68</v>
+      </c>
+      <c r="F168" t="s">
+        <v>181</v>
+      </c>
+      <c r="G168" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>2527141701</v>
+      </c>
+      <c r="B169" t="s">
+        <v>152</v>
+      </c>
+      <c r="C169" t="s">
+        <v>163</v>
+      </c>
+      <c r="D169" t="s">
+        <v>177</v>
+      </c>
+      <c r="E169">
+        <v>24.36</v>
+      </c>
+      <c r="F169" t="s">
+        <v>181</v>
+      </c>
+      <c r="G169" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>2527141886</v>
+      </c>
+      <c r="B170" t="s">
+        <v>153</v>
+      </c>
+      <c r="C170" t="s">
+        <v>163</v>
+      </c>
+      <c r="D170" t="s">
+        <v>177</v>
+      </c>
+      <c r="E170">
+        <v>24.34</v>
+      </c>
+      <c r="F170" t="s">
+        <v>181</v>
+      </c>
+      <c r="G170" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>2527141877</v>
+      </c>
+      <c r="B171" t="s">
+        <v>154</v>
+      </c>
+      <c r="C171" t="s">
+        <v>163</v>
+      </c>
+      <c r="D171" t="s">
+        <v>177</v>
+      </c>
+      <c r="E171">
+        <v>24.34</v>
+      </c>
+      <c r="F171" t="s">
+        <v>181</v>
+      </c>
+      <c r="G171" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>2527143906</v>
+      </c>
+      <c r="B172" t="s">
+        <v>155</v>
+      </c>
+      <c r="C172" t="s">
+        <v>166</v>
+      </c>
+      <c r="D172" t="s">
+        <v>177</v>
+      </c>
+      <c r="E172">
+        <v>24.16</v>
+      </c>
+      <c r="F172" t="s">
+        <v>181</v>
+      </c>
+      <c r="G172" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>2527144491</v>
+      </c>
+      <c r="B173" t="s">
+        <v>156</v>
+      </c>
+      <c r="C173" t="s">
+        <v>166</v>
+      </c>
+      <c r="D173" t="s">
+        <v>177</v>
+      </c>
+      <c r="E173">
+        <v>24.09</v>
+      </c>
+      <c r="F173" t="s">
+        <v>181</v>
+      </c>
+      <c r="G173" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
